--- a/Algoritmo_Rota/Planilhas/BFS/PLN_32_20.xlsx
+++ b/Algoritmo_Rota/Planilhas/BFS/PLN_32_20.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4408.766666666666</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>4908</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3687</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.07790047327677409</v>
+        <v>3899</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10, 27, 1, 12, 2, 7, 30, 13, 25, 18, 17, 26, 20, 4, 6, 9, 19, 3, 31, 23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 12 -&gt; 17 -&gt; 13 -&gt; 9 -&gt; 26 -&gt; 25 -&gt; 27 -&gt; 30 -&gt; 31 -&gt; 19 -&gt; 20 -&gt; 6 -&gt; 3 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 18 -&gt; 23 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 13 -&gt; 17 -&gt; 13 -&gt; 9 -&gt; 6 -&gt; 27 -&gt; 26 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 20 -&gt; 19 -&gt; 20 -&gt; 17 -&gt; 13 -&gt; 9 -&gt; 6 -&gt; 3 -&gt; 2 -&gt; 5 -&gt; 4 -&gt; 7 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 4 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.09434223175048828</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4094.133333333333</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>4509</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3623</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.07819383939107259</v>
+        <v>3236</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8, 27, 30, 26, 1, 25, 23, 24, 11, 14, 20, 22, 6, 10, 16, 29, 21, 4, 9, 12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 24 -&gt; 20 -&gt; 16 -&gt; 10 -&gt; 11 -&gt; 12 -&gt; 29 -&gt; 30 -&gt; 9 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 4 -&gt; 1 -&gt; 8 -&gt; 14 -&gt; 21 -&gt; 22 -&gt; 23 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 12 -&gt; 11 -&gt; 10 -&gt; 11 -&gt; 12 -&gt; 13 -&gt; 29 -&gt; 30 -&gt; 17 -&gt; 13 -&gt; 9 -&gt; 6 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 5 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 23 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.09525418281555176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4997.933333333333</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5561</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4302</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.08134075800577799</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4709.733333333334</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5152</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4020</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.07882402737935384</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4470.433333333333</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4972</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3629</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.08007744153340658</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4446.066666666667</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4878</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3903</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.08416682084401449</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4954.466666666666</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5426</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4152</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.08340870539347331</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4128.2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4494</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3166</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0815593957901001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5036.1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5461</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4573</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.08041600386301677</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4387.533333333334</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4776</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3903</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.08144944508870443</v>
+        <v>3875</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32, 16, 10, 9, 27, 24, 8, 1, 26, 6, 25, 21, 5, 12, 20, 3, 2, 29, 31, 19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 6 -&gt; 25 -&gt; 3 -&gt; 27 -&gt; 26 -&gt; 24 -&gt; 32 -&gt; 31 -&gt; 20 -&gt; 19 -&gt; 16 -&gt; 21 -&gt; 10 -&gt; 29 -&gt; 8 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 12 -&gt; 9 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 3 -&gt; 25 -&gt; 3 -&gt; 6 -&gt; 27 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 9 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 31 -&gt; 20 -&gt; 19 -&gt; 16 -&gt; 19 -&gt; 18 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 11 -&gt; 12 -&gt; 13 -&gt; 29 -&gt; 13 -&gt; 9 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 8 -&gt; 9 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0961148738861084</v>
       </c>
     </row>
   </sheetData>
